--- a/data/pca/factorExposure/factorExposure_2016-11-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01749635657928827</v>
+        <v>0.01594066797442157</v>
       </c>
       <c r="C2">
-        <v>-0.04415156563798235</v>
+        <v>-0.04101945514691618</v>
       </c>
       <c r="D2">
-        <v>-0.02372445586544011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05564594476504792</v>
+      </c>
+      <c r="E2">
+        <v>0.01954008619857715</v>
+      </c>
+      <c r="F2">
+        <v>-0.09289306411395727</v>
+      </c>
+      <c r="G2">
+        <v>0.03405100409766814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05178524867315405</v>
+        <v>0.03365210915987123</v>
       </c>
       <c r="C3">
-        <v>-0.1003628219621154</v>
+        <v>-0.08339424763339767</v>
       </c>
       <c r="D3">
-        <v>-0.03162813220804973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09416158671598514</v>
+      </c>
+      <c r="E3">
+        <v>0.02416017589445673</v>
+      </c>
+      <c r="F3">
+        <v>-0.08169291812463722</v>
+      </c>
+      <c r="G3">
+        <v>-0.06778432943127197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05970834200671962</v>
+        <v>0.05882214927586907</v>
       </c>
       <c r="C4">
-        <v>-0.06732573897662633</v>
+        <v>-0.06195948352650746</v>
       </c>
       <c r="D4">
-        <v>-0.007032818534207621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05629869559766923</v>
+      </c>
+      <c r="E4">
+        <v>0.01371301099850344</v>
+      </c>
+      <c r="F4">
+        <v>-0.09693563290658384</v>
+      </c>
+      <c r="G4">
+        <v>-0.03024761098497927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02534692576964807</v>
+        <v>0.03445208498583016</v>
       </c>
       <c r="C6">
-        <v>-0.05077833267556334</v>
+        <v>-0.03914983543342232</v>
       </c>
       <c r="D6">
-        <v>-0.01082588912864244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06485843279264784</v>
+      </c>
+      <c r="E6">
+        <v>0.01717444222390614</v>
+      </c>
+      <c r="F6">
+        <v>-0.08767178712834736</v>
+      </c>
+      <c r="G6">
+        <v>-0.00825725417898187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02119427293748643</v>
+        <v>0.02131050854695912</v>
       </c>
       <c r="C7">
-        <v>-0.04553907738911169</v>
+        <v>-0.03655548353623309</v>
       </c>
       <c r="D7">
-        <v>0.01183872209101225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0318521582915117</v>
+      </c>
+      <c r="E7">
+        <v>-0.0001885516916987847</v>
+      </c>
+      <c r="F7">
+        <v>-0.1185552151861849</v>
+      </c>
+      <c r="G7">
+        <v>0.008606093027100593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0006395620954645655</v>
+        <v>0.006528030641696454</v>
       </c>
       <c r="C8">
-        <v>-0.01017056828131069</v>
+        <v>-0.0193696330051135</v>
       </c>
       <c r="D8">
-        <v>-0.01384235330731614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03411515006597186</v>
+      </c>
+      <c r="E8">
+        <v>0.01251608230101942</v>
+      </c>
+      <c r="F8">
+        <v>-0.06954987409548397</v>
+      </c>
+      <c r="G8">
+        <v>-0.006384946016387678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02684723974982438</v>
+        <v>0.03717184595667872</v>
       </c>
       <c r="C9">
-        <v>-0.04571041449183696</v>
+        <v>-0.04884476259624119</v>
       </c>
       <c r="D9">
-        <v>-0.001141799117964638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04007403193566136</v>
+      </c>
+      <c r="E9">
+        <v>0.008437028649580342</v>
+      </c>
+      <c r="F9">
+        <v>-0.1009305488794666</v>
+      </c>
+      <c r="G9">
+        <v>-0.01267290356108393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08435549671225516</v>
+        <v>0.09731653039679555</v>
       </c>
       <c r="C10">
-        <v>0.1963929577733849</v>
+        <v>0.1916747515919796</v>
       </c>
       <c r="D10">
-        <v>-0.02083950517075767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005918573559168208</v>
+      </c>
+      <c r="E10">
+        <v>0.03587213772037704</v>
+      </c>
+      <c r="F10">
+        <v>-0.04866148973229343</v>
+      </c>
+      <c r="G10">
+        <v>-0.0009730889936170952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04105862386689423</v>
+        <v>0.03690816956758467</v>
       </c>
       <c r="C11">
-        <v>-0.0553523089542799</v>
+        <v>-0.05118233251658861</v>
       </c>
       <c r="D11">
-        <v>0.006277392140146987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02736319965759449</v>
+      </c>
+      <c r="E11">
+        <v>-0.01361051500486798</v>
+      </c>
+      <c r="F11">
+        <v>-0.06864045322258558</v>
+      </c>
+      <c r="G11">
+        <v>-0.005870119545110805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03499498494942708</v>
+        <v>0.03744225048955487</v>
       </c>
       <c r="C12">
-        <v>-0.04612570078557128</v>
+        <v>-0.04636780863561465</v>
       </c>
       <c r="D12">
-        <v>0.00685846601398785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02108256475311413</v>
+      </c>
+      <c r="E12">
+        <v>-0.004611727891722883</v>
+      </c>
+      <c r="F12">
+        <v>-0.07107740350034446</v>
+      </c>
+      <c r="G12">
+        <v>-0.001762727718666504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01037945456905052</v>
+        <v>0.01418612566888584</v>
       </c>
       <c r="C13">
-        <v>-0.04127406137423163</v>
+        <v>-0.03964986017917586</v>
       </c>
       <c r="D13">
-        <v>-0.02016040629970128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06171433485252679</v>
+      </c>
+      <c r="E13">
+        <v>0.02961773380191785</v>
+      </c>
+      <c r="F13">
+        <v>-0.135002017784613</v>
+      </c>
+      <c r="G13">
+        <v>-0.009654239911398264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006047837221750453</v>
+        <v>0.007019376398433481</v>
       </c>
       <c r="C14">
-        <v>-0.02943283636750853</v>
+        <v>-0.02528400883218398</v>
       </c>
       <c r="D14">
-        <v>0.01467846241806415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02404574917750522</v>
+      </c>
+      <c r="E14">
+        <v>0.006016850820695928</v>
+      </c>
+      <c r="F14">
+        <v>-0.1042584193030537</v>
+      </c>
+      <c r="G14">
+        <v>0.0165285119945929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001347829352973622</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001273098376482186</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00145984939417381</v>
+      </c>
+      <c r="E15">
+        <v>-0.001010699839412672</v>
+      </c>
+      <c r="F15">
+        <v>-0.00069691425883194</v>
+      </c>
+      <c r="G15">
+        <v>0.0006271757578075096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03449278918460068</v>
+        <v>0.0342389571215127</v>
       </c>
       <c r="C16">
-        <v>-0.04075292767286222</v>
+        <v>-0.04427847031435347</v>
       </c>
       <c r="D16">
-        <v>-0.001006632234502144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02485382854581818</v>
+      </c>
+      <c r="E16">
+        <v>0.00169527409296539</v>
+      </c>
+      <c r="F16">
+        <v>-0.07404887933837996</v>
+      </c>
+      <c r="G16">
+        <v>0.007917093795199413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03017569692049518</v>
+        <v>0.01960544162979362</v>
       </c>
       <c r="C19">
-        <v>-0.0593792349145883</v>
+        <v>-0.04783148523698601</v>
       </c>
       <c r="D19">
-        <v>-0.04021371459136932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09935755993221507</v>
+      </c>
+      <c r="E19">
+        <v>0.0348818919476666</v>
+      </c>
+      <c r="F19">
+        <v>-0.1358450246632514</v>
+      </c>
+      <c r="G19">
+        <v>0.02241719297495789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01368291273266605</v>
+        <v>0.01487952650514473</v>
       </c>
       <c r="C20">
-        <v>-0.04438395203211182</v>
+        <v>-0.03858463687152824</v>
       </c>
       <c r="D20">
-        <v>-0.02256859776631246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04613273423205265</v>
+      </c>
+      <c r="E20">
+        <v>0.03521328541760264</v>
+      </c>
+      <c r="F20">
+        <v>-0.1019934514923455</v>
+      </c>
+      <c r="G20">
+        <v>0.006464684246605199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005642679400225507</v>
+        <v>0.009232034784683429</v>
       </c>
       <c r="C21">
-        <v>-0.04023172235586361</v>
+        <v>-0.0387275849510996</v>
       </c>
       <c r="D21">
-        <v>-0.02786492679349505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06301591498599084</v>
+      </c>
+      <c r="E21">
+        <v>0.0298886743810563</v>
+      </c>
+      <c r="F21">
+        <v>-0.1497233913573962</v>
+      </c>
+      <c r="G21">
+        <v>0.006007709909131922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003659896404127358</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01451159668170025</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02792243080369411</v>
+      </c>
+      <c r="E22">
+        <v>0.0009197898907485681</v>
+      </c>
+      <c r="F22">
+        <v>-0.02129873861411954</v>
+      </c>
+      <c r="G22">
+        <v>-0.03420927239392409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003714167246616528</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01446489314560171</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02766777316671332</v>
+      </c>
+      <c r="E23">
+        <v>0.001229161638362615</v>
+      </c>
+      <c r="F23">
+        <v>-0.02103295166921964</v>
+      </c>
+      <c r="G23">
+        <v>-0.03422745195176156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02895774905335516</v>
+        <v>0.03263371845215082</v>
       </c>
       <c r="C24">
-        <v>-0.04754688372337917</v>
+        <v>-0.05160663462720887</v>
       </c>
       <c r="D24">
-        <v>0.008057527552778089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02274887699617435</v>
+      </c>
+      <c r="E24">
+        <v>-0.004515471599192218</v>
+      </c>
+      <c r="F24">
+        <v>-0.07895280704263737</v>
+      </c>
+      <c r="G24">
+        <v>0.002709224603171695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04633584389381306</v>
+        <v>0.0430955125589871</v>
       </c>
       <c r="C25">
-        <v>-0.05594000528199337</v>
+        <v>-0.05661897500193418</v>
       </c>
       <c r="D25">
-        <v>0.0195735543123395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01786558918399376</v>
+      </c>
+      <c r="E25">
+        <v>-0.007223117830435961</v>
+      </c>
+      <c r="F25">
+        <v>-0.08444272327031585</v>
+      </c>
+      <c r="G25">
+        <v>-0.01468820951333871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008009556251197435</v>
+        <v>0.01479273984408535</v>
       </c>
       <c r="C26">
-        <v>-0.01379376018874199</v>
+        <v>-0.01271619342406821</v>
       </c>
       <c r="D26">
-        <v>-0.001548300119988385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01843969985413221</v>
+      </c>
+      <c r="E26">
+        <v>0.008263372530628369</v>
+      </c>
+      <c r="F26">
+        <v>-0.08242395613190261</v>
+      </c>
+      <c r="G26">
+        <v>0.0204890310045271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09860620895009768</v>
+        <v>0.1309094860815229</v>
       </c>
       <c r="C28">
-        <v>0.2241046822864876</v>
+        <v>0.242754149399685</v>
       </c>
       <c r="D28">
-        <v>-0.01408849852057294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01176899424278139</v>
+      </c>
+      <c r="E28">
+        <v>0.03692008288283136</v>
+      </c>
+      <c r="F28">
+        <v>-0.0611912000959068</v>
+      </c>
+      <c r="G28">
+        <v>-0.008524189908553184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0113612824892671</v>
+        <v>0.007925208550573513</v>
       </c>
       <c r="C29">
-        <v>-0.02227299972357726</v>
+        <v>-0.02177050468394256</v>
       </c>
       <c r="D29">
-        <v>0.01464776835743557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01477000969508429</v>
+      </c>
+      <c r="E29">
+        <v>0.01001409685803968</v>
+      </c>
+      <c r="F29">
+        <v>-0.09783609298022726</v>
+      </c>
+      <c r="G29">
+        <v>0.003642959737514884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03969635239441548</v>
+        <v>0.03855360898047638</v>
       </c>
       <c r="C30">
-        <v>-0.07323406353542912</v>
+        <v>-0.06199209787809819</v>
       </c>
       <c r="D30">
-        <v>-0.003341436096313057</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09571291172678094</v>
+      </c>
+      <c r="E30">
+        <v>-0.0140988879042266</v>
+      </c>
+      <c r="F30">
+        <v>-0.1108057943323854</v>
+      </c>
+      <c r="G30">
+        <v>0.02859081385360399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04221460310861717</v>
+        <v>0.05719182570233013</v>
       </c>
       <c r="C31">
-        <v>-0.03136674482682439</v>
+        <v>-0.04424415805965567</v>
       </c>
       <c r="D31">
-        <v>0.008651416363200904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.001392317216502948</v>
+      </c>
+      <c r="E31">
+        <v>0.03232558818639514</v>
+      </c>
+      <c r="F31">
+        <v>-0.09495641560249851</v>
+      </c>
+      <c r="G31">
+        <v>-0.03263826274287362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008889222779842915</v>
+        <v>0.004604806446638922</v>
       </c>
       <c r="C32">
-        <v>-0.03310124925565112</v>
+        <v>-0.02805113074719577</v>
       </c>
       <c r="D32">
-        <v>-0.01427277300932042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04360554999240145</v>
+      </c>
+      <c r="E32">
+        <v>-0.001196343124849194</v>
+      </c>
+      <c r="F32">
+        <v>-0.07869783021855209</v>
+      </c>
+      <c r="G32">
+        <v>0.009087285170260785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03039539488324457</v>
+        <v>0.02688487617665993</v>
       </c>
       <c r="C33">
-        <v>-0.05710482984341465</v>
+        <v>-0.04892586300501954</v>
       </c>
       <c r="D33">
-        <v>-0.009309170464128691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07254940608236785</v>
+      </c>
+      <c r="E33">
+        <v>0.008145655540229481</v>
+      </c>
+      <c r="F33">
+        <v>-0.1514122691814626</v>
+      </c>
+      <c r="G33">
+        <v>-0.01016742212296321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05194759783648984</v>
+        <v>0.04272833527197058</v>
       </c>
       <c r="C34">
-        <v>-0.05479444376092578</v>
+        <v>-0.06193100613485988</v>
       </c>
       <c r="D34">
-        <v>0.01406915731079892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02556516066996705</v>
+      </c>
+      <c r="E34">
+        <v>-0.02110933246654707</v>
+      </c>
+      <c r="F34">
+        <v>-0.07692616056165841</v>
+      </c>
+      <c r="G34">
+        <v>-0.002058668671186719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008635726096163008</v>
+        <v>0.0155757079246175</v>
       </c>
       <c r="C36">
-        <v>-0.008900075680825549</v>
+        <v>-0.008680474620729272</v>
       </c>
       <c r="D36">
-        <v>0.003223336232076009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02059482602586797</v>
+      </c>
+      <c r="E36">
+        <v>0.01254793872854434</v>
+      </c>
+      <c r="F36">
+        <v>-0.09559692009237579</v>
+      </c>
+      <c r="G36">
+        <v>-0.003115214411310851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03622942037633696</v>
+        <v>0.02858854504229005</v>
       </c>
       <c r="C38">
-        <v>-0.02223819315223269</v>
+        <v>-0.02175824261171766</v>
       </c>
       <c r="D38">
-        <v>0.008003375406841559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02179407356505266</v>
+      </c>
+      <c r="E38">
+        <v>0.01417939874555406</v>
+      </c>
+      <c r="F38">
+        <v>-0.08532319776197242</v>
+      </c>
+      <c r="G38">
+        <v>-0.004816041259020006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03737091649211142</v>
+        <v>0.03730382159499322</v>
       </c>
       <c r="C39">
-        <v>-0.08269406134734032</v>
+        <v>-0.07162895925704456</v>
       </c>
       <c r="D39">
-        <v>-0.01226504231945734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05122054637511499</v>
+      </c>
+      <c r="E39">
+        <v>-0.01362001012748308</v>
+      </c>
+      <c r="F39">
+        <v>-0.08803312088526302</v>
+      </c>
+      <c r="G39">
+        <v>0.03291610088420271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01708034963904255</v>
+        <v>0.01816715543562731</v>
       </c>
       <c r="C40">
-        <v>-0.02638612994492984</v>
+        <v>-0.03684947143340294</v>
       </c>
       <c r="D40">
-        <v>-0.02153485825790257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03519668009389144</v>
+      </c>
+      <c r="E40">
+        <v>0.03344027748595429</v>
+      </c>
+      <c r="F40">
+        <v>-0.1185311502059457</v>
+      </c>
+      <c r="G40">
+        <v>-0.04112781130646087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0105948355237742</v>
+        <v>0.01841372081760459</v>
       </c>
       <c r="C41">
-        <v>-0.0005685213139617289</v>
+        <v>-0.001878955881174714</v>
       </c>
       <c r="D41">
-        <v>0.008031220370461702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01520116052466115</v>
+      </c>
+      <c r="E41">
+        <v>0.01774346144014743</v>
+      </c>
+      <c r="F41">
+        <v>-0.08548584959222826</v>
+      </c>
+      <c r="G41">
+        <v>0.003282782558118334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.004224256147863024</v>
+        <v>0.002689013112369135</v>
       </c>
       <c r="C42">
-        <v>-0.03333840821682679</v>
+        <v>-0.01769450111091404</v>
       </c>
       <c r="D42">
-        <v>-0.01969677010539063</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.01442741933685394</v>
+      </c>
+      <c r="E42">
+        <v>0.002245741507573362</v>
+      </c>
+      <c r="F42">
+        <v>0.02211664562972884</v>
+      </c>
+      <c r="G42">
+        <v>-0.0055510043967574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03164910039426823</v>
+        <v>0.03176231984394328</v>
       </c>
       <c r="C43">
-        <v>-0.01281151599856846</v>
+        <v>-0.01478589666829083</v>
       </c>
       <c r="D43">
-        <v>0.004422951258609154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03454782444822139</v>
+      </c>
+      <c r="E43">
+        <v>0.01383506192606757</v>
+      </c>
+      <c r="F43">
+        <v>-0.1078422492596269</v>
+      </c>
+      <c r="G43">
+        <v>-0.01895866414151555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01934585740131594</v>
+        <v>0.01613912133108262</v>
       </c>
       <c r="C44">
-        <v>-0.05597437576720879</v>
+        <v>-0.05284680614628025</v>
       </c>
       <c r="D44">
-        <v>-0.005781313212374811</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04033379071749144</v>
+      </c>
+      <c r="E44">
+        <v>0.02611819888917799</v>
+      </c>
+      <c r="F44">
+        <v>-0.113007476393926</v>
+      </c>
+      <c r="G44">
+        <v>0.01190901601931175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.000368374553654888</v>
+        <v>0.01042145318630952</v>
       </c>
       <c r="C46">
-        <v>-0.01364577612473262</v>
+        <v>-0.01684246134800044</v>
       </c>
       <c r="D46">
-        <v>0.0149670023208699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007153565049069491</v>
+      </c>
+      <c r="E46">
+        <v>0.01606515711046932</v>
+      </c>
+      <c r="F46">
+        <v>-0.1099598217509007</v>
+      </c>
+      <c r="G46">
+        <v>0.01024361365323402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07764941394110146</v>
+        <v>0.08806048187185496</v>
       </c>
       <c r="C47">
-        <v>-0.06949078384668539</v>
+        <v>-0.07464240020778221</v>
       </c>
       <c r="D47">
-        <v>0.007202119653417403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008915208152591428</v>
+      </c>
+      <c r="E47">
+        <v>0.040558874468161</v>
+      </c>
+      <c r="F47">
+        <v>-0.09471542469773536</v>
+      </c>
+      <c r="G47">
+        <v>-0.03688037675618732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01731769143285856</v>
+        <v>0.01697153609684087</v>
       </c>
       <c r="C48">
-        <v>-0.01064515343138339</v>
+        <v>-0.01488827192770563</v>
       </c>
       <c r="D48">
-        <v>0.007029767483282646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01414453966684233</v>
+      </c>
+      <c r="E48">
+        <v>0.0222564885512639</v>
+      </c>
+      <c r="F48">
+        <v>-0.1071833667387913</v>
+      </c>
+      <c r="G48">
+        <v>0.00297429890674931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08634586233520478</v>
+        <v>0.07420886427344257</v>
       </c>
       <c r="C50">
-        <v>-0.06790830809810657</v>
+        <v>-0.06713026682001687</v>
       </c>
       <c r="D50">
-        <v>0.0211435908760555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0008689697666030472</v>
+      </c>
+      <c r="E50">
+        <v>0.0332909935268968</v>
+      </c>
+      <c r="F50">
+        <v>-0.09249040998383809</v>
+      </c>
+      <c r="G50">
+        <v>-0.06778747546052979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01404730352218681</v>
+        <v>0.01178746355973926</v>
       </c>
       <c r="C51">
-        <v>-0.03978650500316244</v>
+        <v>-0.0317657049249977</v>
       </c>
       <c r="D51">
-        <v>0.004092915063840874</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04222418092302416</v>
+      </c>
+      <c r="E51">
+        <v>-0.004633989197459438</v>
+      </c>
+      <c r="F51">
+        <v>-0.09872815946892495</v>
+      </c>
+      <c r="G51">
+        <v>0.01895987207983368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09594918821514814</v>
+        <v>0.09148103031403114</v>
       </c>
       <c r="C53">
-        <v>-0.07115101172713871</v>
+        <v>-0.08540478296541246</v>
       </c>
       <c r="D53">
-        <v>0.02785467401665637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03392864469733611</v>
+      </c>
+      <c r="E53">
+        <v>0.04692959231553391</v>
+      </c>
+      <c r="F53">
+        <v>-0.1003189308956357</v>
+      </c>
+      <c r="G53">
+        <v>-0.04166509436064789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02985882548387249</v>
+        <v>0.03065429686913851</v>
       </c>
       <c r="C54">
-        <v>-0.007118001642465998</v>
+        <v>-0.02089186095586623</v>
       </c>
       <c r="D54">
-        <v>0.0001034207968928519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02716651067821711</v>
+      </c>
+      <c r="E54">
+        <v>0.01111684434767817</v>
+      </c>
+      <c r="F54">
+        <v>-0.1083197711663421</v>
+      </c>
+      <c r="G54">
+        <v>0.001728972978787954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0734224174430429</v>
+        <v>0.08368980535475286</v>
       </c>
       <c r="C55">
-        <v>-0.06562029459177056</v>
+        <v>-0.06792008115635743</v>
       </c>
       <c r="D55">
-        <v>0.02657611347133076</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04016988281387156</v>
+      </c>
+      <c r="E55">
+        <v>0.04554953007450153</v>
+      </c>
+      <c r="F55">
+        <v>-0.06835376530349974</v>
+      </c>
+      <c r="G55">
+        <v>-0.0359565031402266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1494542789659855</v>
+        <v>0.1447242450836424</v>
       </c>
       <c r="C56">
-        <v>-0.09347923358653233</v>
+        <v>-0.1022958667097448</v>
       </c>
       <c r="D56">
-        <v>0.01975328583829637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04022238601922355</v>
+      </c>
+      <c r="E56">
+        <v>0.05079210946391659</v>
+      </c>
+      <c r="F56">
+        <v>-0.0597291219719234</v>
+      </c>
+      <c r="G56">
+        <v>-0.04252719808516594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005109717031812263</v>
+        <v>0.002204904361940615</v>
       </c>
       <c r="C57">
-        <v>-0.006233422679686794</v>
+        <v>-0.002871242139726333</v>
       </c>
       <c r="D57">
-        <v>-0.03202358792169784</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0243004125564634</v>
+      </c>
+      <c r="E57">
+        <v>0.009106546027900059</v>
+      </c>
+      <c r="F57">
+        <v>-0.009199835099689998</v>
+      </c>
+      <c r="G57">
+        <v>0.004527676397707539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05342481640503589</v>
+        <v>0.03462782753254044</v>
       </c>
       <c r="C58">
-        <v>-0.07708750565985018</v>
+        <v>-0.03859345401070525</v>
       </c>
       <c r="D58">
-        <v>-0.9680742961387153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.654682070069831</v>
+      </c>
+      <c r="E58">
+        <v>0.6515664767292015</v>
+      </c>
+      <c r="F58">
+        <v>0.3139666069838882</v>
+      </c>
+      <c r="G58">
+        <v>-0.02164380028582868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1434247742099113</v>
+        <v>0.1494626065848807</v>
       </c>
       <c r="C59">
-        <v>0.2156878223831283</v>
+        <v>0.2009495538064949</v>
       </c>
       <c r="D59">
-        <v>-0.01539938965656343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02170340912073549</v>
+      </c>
+      <c r="E59">
+        <v>0.01388943575888289</v>
+      </c>
+      <c r="F59">
+        <v>-0.03614749192210739</v>
+      </c>
+      <c r="G59">
+        <v>0.0226354802316243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3126920757028809</v>
+        <v>0.2821299121954952</v>
       </c>
       <c r="C60">
-        <v>-0.09416933029886776</v>
+        <v>-0.09546758829231175</v>
       </c>
       <c r="D60">
-        <v>0.0003271728513826679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1594356037920837</v>
+      </c>
+      <c r="E60">
+        <v>-0.2865736856960385</v>
+      </c>
+      <c r="F60">
+        <v>0.1499744017846249</v>
+      </c>
+      <c r="G60">
+        <v>-0.06423366979298457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03615782790485934</v>
+        <v>0.04052221901395201</v>
       </c>
       <c r="C61">
-        <v>-0.06104585843188426</v>
+        <v>-0.06101209586392248</v>
       </c>
       <c r="D61">
-        <v>-0.009075396853255643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04273191312537759</v>
+      </c>
+      <c r="E61">
+        <v>-0.004012954913560792</v>
+      </c>
+      <c r="F61">
+        <v>-0.08861542404834469</v>
+      </c>
+      <c r="G61">
+        <v>-0.001769744687600482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01555946851721766</v>
+        <v>0.01680886424623389</v>
       </c>
       <c r="C63">
-        <v>-0.02872844919306356</v>
+        <v>-0.02860952641140287</v>
       </c>
       <c r="D63">
-        <v>0.01341523223729223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01483525107038973</v>
+      </c>
+      <c r="E63">
+        <v>0.01385603716569543</v>
+      </c>
+      <c r="F63">
+        <v>-0.09075162817590257</v>
+      </c>
+      <c r="G63">
+        <v>-0.02042383616123113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04862869114644858</v>
+        <v>0.05437405503371247</v>
       </c>
       <c r="C64">
-        <v>-0.02864165155049623</v>
+        <v>-0.0490278220991401</v>
       </c>
       <c r="D64">
-        <v>0.01321032723709512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01059032901091774</v>
+      </c>
+      <c r="E64">
+        <v>-0.002181249783950713</v>
+      </c>
+      <c r="F64">
+        <v>-0.09534261503494709</v>
+      </c>
+      <c r="G64">
+        <v>0.01134942576015363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08701796940369634</v>
+        <v>0.06709130338033806</v>
       </c>
       <c r="C65">
-        <v>-0.06181635780530385</v>
+        <v>-0.04300562497095681</v>
       </c>
       <c r="D65">
-        <v>-0.009686640364140475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0772166546519114</v>
+      </c>
+      <c r="E65">
+        <v>-0.008013964330979749</v>
+      </c>
+      <c r="F65">
+        <v>-0.03739788587134148</v>
+      </c>
+      <c r="G65">
+        <v>0.005487862156222061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06021733707164385</v>
+        <v>0.05056389046978751</v>
       </c>
       <c r="C66">
-        <v>-0.1193406877820649</v>
+        <v>-0.0965149933287775</v>
       </c>
       <c r="D66">
-        <v>-0.01560462972278453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07595145779835399</v>
+      </c>
+      <c r="E66">
+        <v>-0.01591104395299416</v>
+      </c>
+      <c r="F66">
+        <v>-0.09191905086263996</v>
+      </c>
+      <c r="G66">
+        <v>0.01428287720785352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06160232576445902</v>
+        <v>0.05102086326395965</v>
       </c>
       <c r="C67">
-        <v>-0.02730071610549831</v>
+        <v>-0.0268942192827997</v>
       </c>
       <c r="D67">
-        <v>0.01400353046284319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007938480855397306</v>
+      </c>
+      <c r="E67">
+        <v>0.006241299139418788</v>
+      </c>
+      <c r="F67">
+        <v>-0.06965056059229265</v>
+      </c>
+      <c r="G67">
+        <v>-0.01020631672980449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1248432826543688</v>
+        <v>0.1519556034643547</v>
       </c>
       <c r="C68">
-        <v>0.2870011300274836</v>
+        <v>0.2619202855754745</v>
       </c>
       <c r="D68">
-        <v>-0.02855308058293132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01265042144101153</v>
+      </c>
+      <c r="E68">
+        <v>0.04239905343109845</v>
+      </c>
+      <c r="F68">
+        <v>-0.01938362468044838</v>
+      </c>
+      <c r="G68">
+        <v>-0.0003213094122112639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08510641519026529</v>
+        <v>0.08725909871743268</v>
       </c>
       <c r="C69">
-        <v>-0.067483156164485</v>
+        <v>-0.08172815472359893</v>
       </c>
       <c r="D69">
-        <v>0.03368641632869408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01158094384291243</v>
+      </c>
+      <c r="E69">
+        <v>0.01271143358611593</v>
+      </c>
+      <c r="F69">
+        <v>-0.0990118690320403</v>
+      </c>
+      <c r="G69">
+        <v>-0.009241424109473354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1254031604271205</v>
+        <v>0.1408433197272357</v>
       </c>
       <c r="C71">
-        <v>0.2373162676667326</v>
+        <v>0.2359964804546095</v>
       </c>
       <c r="D71">
-        <v>-0.0308737869622493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02056738717371051</v>
+      </c>
+      <c r="E71">
+        <v>0.04343289793964394</v>
+      </c>
+      <c r="F71">
+        <v>-0.06597657242709404</v>
+      </c>
+      <c r="G71">
+        <v>-0.01751542694744427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07851351694856387</v>
+        <v>0.08853477498775811</v>
       </c>
       <c r="C72">
-        <v>-0.05806357525794123</v>
+        <v>-0.05724352491046901</v>
       </c>
       <c r="D72">
-        <v>0.04094290639217341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.009531288656691745</v>
+      </c>
+      <c r="E72">
+        <v>-0.02283722568508036</v>
+      </c>
+      <c r="F72">
+        <v>-0.07950746127189653</v>
+      </c>
+      <c r="G72">
+        <v>-0.009054485201251081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4435952606234479</v>
+        <v>0.3537992612367899</v>
       </c>
       <c r="C73">
-        <v>-0.08794647760256527</v>
+        <v>-0.07456693997205019</v>
       </c>
       <c r="D73">
-        <v>-0.02755162198802173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3407393102743214</v>
+      </c>
+      <c r="E73">
+        <v>-0.515396969338048</v>
+      </c>
+      <c r="F73">
+        <v>0.32727102715609</v>
+      </c>
+      <c r="G73">
+        <v>-0.1499493707692598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1153782551783775</v>
+        <v>0.1115096424255678</v>
       </c>
       <c r="C74">
-        <v>-0.116490202787637</v>
+        <v>-0.1023644703801008</v>
       </c>
       <c r="D74">
-        <v>0.02393198173627447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01818740525534818</v>
+      </c>
+      <c r="E74">
+        <v>0.06308381393644348</v>
+      </c>
+      <c r="F74">
+        <v>-0.07895910414261481</v>
+      </c>
+      <c r="G74">
+        <v>-0.05760178016896102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2583513756626357</v>
+        <v>0.2553451692629455</v>
       </c>
       <c r="C75">
-        <v>-0.1263372387988201</v>
+        <v>-0.1397228960356613</v>
       </c>
       <c r="D75">
-        <v>0.0388944002501806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1028110844051568</v>
+      </c>
+      <c r="E75">
+        <v>0.1140343734656806</v>
+      </c>
+      <c r="F75">
+        <v>-0.02648376107140716</v>
+      </c>
+      <c r="G75">
+        <v>-0.05774944894843907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1154847241088682</v>
+        <v>0.1281020710821879</v>
       </c>
       <c r="C76">
-        <v>-0.1038361365761096</v>
+        <v>-0.1046651635172244</v>
       </c>
       <c r="D76">
-        <v>0.03450304970932686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04733978665480165</v>
+      </c>
+      <c r="E76">
+        <v>0.07867541299155402</v>
+      </c>
+      <c r="F76">
+        <v>-0.08023523405512457</v>
+      </c>
+      <c r="G76">
+        <v>-0.04447368501819516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06890175714631426</v>
+        <v>0.06594542026283733</v>
       </c>
       <c r="C77">
-        <v>-0.06010479994912729</v>
+        <v>-0.06509872802871325</v>
       </c>
       <c r="D77">
-        <v>-0.03379210445743083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06076984380862348</v>
+      </c>
+      <c r="E77">
+        <v>0.03688985353509003</v>
+      </c>
+      <c r="F77">
+        <v>-0.1037553581514497</v>
+      </c>
+      <c r="G77">
+        <v>0.1418687956575633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04225162654986211</v>
+        <v>0.04126953863866348</v>
       </c>
       <c r="C78">
-        <v>-0.04895307223581304</v>
+        <v>-0.05530194165863902</v>
       </c>
       <c r="D78">
-        <v>-0.007168252457727309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0628175595438927</v>
+      </c>
+      <c r="E78">
+        <v>-0.01988109936918937</v>
+      </c>
+      <c r="F78">
+        <v>-0.09696504597580559</v>
+      </c>
+      <c r="G78">
+        <v>0.006190312112000427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01004817385448014</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0325327051340955</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03765399765588554</v>
+      </c>
+      <c r="E79">
+        <v>0.04079119305095522</v>
+      </c>
+      <c r="F79">
+        <v>-0.0310796819046693</v>
+      </c>
+      <c r="G79">
+        <v>-0.03345603209317374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04711434930982445</v>
+        <v>0.03873551906183791</v>
       </c>
       <c r="C80">
-        <v>-0.0573766361614732</v>
+        <v>-0.0457274036827114</v>
       </c>
       <c r="D80">
-        <v>-0.02232923830293432</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04596097082809165</v>
+      </c>
+      <c r="E80">
+        <v>0.001475868163448593</v>
+      </c>
+      <c r="F80">
+        <v>-0.03562189525351729</v>
+      </c>
+      <c r="G80">
+        <v>0.04828855950088762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1356171710743052</v>
+        <v>0.1405529844495542</v>
       </c>
       <c r="C81">
-        <v>-0.08120379681666616</v>
+        <v>-0.09466840096609197</v>
       </c>
       <c r="D81">
-        <v>0.02582029169186343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07469869569237629</v>
+      </c>
+      <c r="E81">
+        <v>0.09470802999222337</v>
+      </c>
+      <c r="F81">
+        <v>-0.04112780872260392</v>
+      </c>
+      <c r="G81">
+        <v>-0.04954969763993931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.06983468569412229</v>
+        <v>0.1896072792581911</v>
       </c>
       <c r="C82">
-        <v>-0.04124948847656309</v>
+        <v>-0.1366782849962415</v>
       </c>
       <c r="D82">
-        <v>0.01974931944900206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.212961304178166</v>
+      </c>
+      <c r="E82">
+        <v>0.05357144352045364</v>
+      </c>
+      <c r="F82">
+        <v>-0.04854713673678354</v>
+      </c>
+      <c r="G82">
+        <v>-0.003497669781444607</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02663319411003045</v>
+        <v>0.02708498078953878</v>
       </c>
       <c r="C83">
-        <v>-0.02051396048213108</v>
+        <v>-0.03637652318627507</v>
       </c>
       <c r="D83">
-        <v>-0.01667746577378624</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03241090244743037</v>
+      </c>
+      <c r="E83">
+        <v>-0.006923841138585901</v>
+      </c>
+      <c r="F83">
+        <v>-0.05064123938954341</v>
+      </c>
+      <c r="G83">
+        <v>0.0293428712373939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2415113783693639</v>
+        <v>0.2095074260617413</v>
       </c>
       <c r="C85">
-        <v>-0.1228180456337197</v>
+        <v>-0.1231009558011947</v>
       </c>
       <c r="D85">
-        <v>0.1116502884924192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1030785035944059</v>
+      </c>
+      <c r="E85">
+        <v>0.03581621473515082</v>
+      </c>
+      <c r="F85">
+        <v>0.01410616290692228</v>
+      </c>
+      <c r="G85">
+        <v>-0.1084458397825753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01091055074451164</v>
+        <v>0.01438612593203668</v>
       </c>
       <c r="C86">
-        <v>-0.02482863578019984</v>
+        <v>-0.03091574120451427</v>
       </c>
       <c r="D86">
-        <v>-0.0227351483745113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07227127556507988</v>
+      </c>
+      <c r="E86">
+        <v>0.000854957531797887</v>
+      </c>
+      <c r="F86">
+        <v>-0.1603944612810869</v>
+      </c>
+      <c r="G86">
+        <v>0.02446411421376623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01084716497788825</v>
+        <v>0.02088023330674774</v>
       </c>
       <c r="C87">
-        <v>-0.02670000522537127</v>
+        <v>-0.01877166347418097</v>
       </c>
       <c r="D87">
-        <v>-0.07677985963863596</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09651586435425027</v>
+      </c>
+      <c r="E87">
+        <v>0.0462820195254749</v>
+      </c>
+      <c r="F87">
+        <v>-0.1110908403784415</v>
+      </c>
+      <c r="G87">
+        <v>0.04647112879295804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09895235180739716</v>
+        <v>0.08989267539014174</v>
       </c>
       <c r="C88">
-        <v>-0.07294123472554788</v>
+        <v>-0.06172525887695725</v>
       </c>
       <c r="D88">
-        <v>0.02382815418526718</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007179649798595185</v>
+      </c>
+      <c r="E88">
+        <v>0.01266295048052164</v>
+      </c>
+      <c r="F88">
+        <v>-0.0792975576315772</v>
+      </c>
+      <c r="G88">
+        <v>0.03442818906604151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1987065275356046</v>
+        <v>0.2162159407992836</v>
       </c>
       <c r="C89">
-        <v>0.3682134047102972</v>
+        <v>0.374736053154281</v>
       </c>
       <c r="D89">
-        <v>0.0125688516875818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01889912713638526</v>
+      </c>
+      <c r="E89">
+        <v>0.01086615244342443</v>
+      </c>
+      <c r="F89">
+        <v>-0.0802434100850067</v>
+      </c>
+      <c r="G89">
+        <v>0.08715083267236476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1867470620123876</v>
+        <v>0.2004121640760798</v>
       </c>
       <c r="C90">
-        <v>0.3462882489884552</v>
+        <v>0.3205616862788577</v>
       </c>
       <c r="D90">
-        <v>-0.02160624972404707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01078388939833852</v>
+      </c>
+      <c r="E90">
+        <v>0.05148764936444787</v>
+      </c>
+      <c r="F90">
+        <v>-0.0532329058276599</v>
+      </c>
+      <c r="G90">
+        <v>0.02534976806825134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1986232363410506</v>
+        <v>0.1927789613761684</v>
       </c>
       <c r="C91">
-        <v>-0.1126727818453057</v>
+        <v>-0.1359501326578729</v>
       </c>
       <c r="D91">
-        <v>0.0429707423551378</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09187170080728302</v>
+      </c>
+      <c r="E91">
+        <v>0.09666528494653311</v>
+      </c>
+      <c r="F91">
+        <v>-0.05500154133905685</v>
+      </c>
+      <c r="G91">
+        <v>-0.04740749058439959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1762052180732326</v>
+        <v>0.1824143732844654</v>
       </c>
       <c r="C92">
-        <v>0.2722229219738004</v>
+        <v>0.2784621750324632</v>
       </c>
       <c r="D92">
-        <v>-0.01129414077133738</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005409219502663556</v>
+      </c>
+      <c r="E92">
+        <v>0.07222556755554098</v>
+      </c>
+      <c r="F92">
+        <v>-0.07369135462314522</v>
+      </c>
+      <c r="G92">
+        <v>0.02949691424068145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2019102364600258</v>
+        <v>0.2231901297537745</v>
       </c>
       <c r="C93">
-        <v>0.3303048435621181</v>
+        <v>0.320315692198049</v>
       </c>
       <c r="D93">
-        <v>-0.02094557868335396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002231746960920934</v>
+      </c>
+      <c r="E93">
+        <v>0.04144065978011002</v>
+      </c>
+      <c r="F93">
+        <v>-0.05863787548074046</v>
+      </c>
+      <c r="G93">
+        <v>-0.01585765138957953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2744356822179397</v>
+        <v>0.3412803784395562</v>
       </c>
       <c r="C94">
-        <v>-0.1483831352125044</v>
+        <v>-0.1922483677523641</v>
       </c>
       <c r="D94">
-        <v>0.09591538114523375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4211944150429778</v>
+      </c>
+      <c r="E94">
+        <v>0.292960803094329</v>
+      </c>
+      <c r="F94">
+        <v>0.4328768576336965</v>
+      </c>
+      <c r="G94">
+        <v>0.2089813941204618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08384919431186548</v>
+        <v>0.08140636616182396</v>
       </c>
       <c r="C95">
-        <v>-0.09163328432476291</v>
+        <v>-0.08365197674939609</v>
       </c>
       <c r="D95">
-        <v>-0.06036131895950741</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.141388856110982</v>
+      </c>
+      <c r="E95">
+        <v>-0.1430810383780747</v>
+      </c>
+      <c r="F95">
+        <v>-0.01991315075109759</v>
+      </c>
+      <c r="G95">
+        <v>0.9083377931707569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2104023363113654</v>
+        <v>0.1921549095324763</v>
       </c>
       <c r="C98">
-        <v>-0.03916254140862867</v>
+        <v>-0.04056324482426388</v>
       </c>
       <c r="D98">
-        <v>-0.03636822028556762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1523838379040768</v>
+      </c>
+      <c r="E98">
+        <v>-0.1752625447368713</v>
+      </c>
+      <c r="F98">
+        <v>0.04525419291455968</v>
+      </c>
+      <c r="G98">
+        <v>-0.1068113575110073</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01102960820645194</v>
+        <v>0.007740900281829617</v>
       </c>
       <c r="C101">
-        <v>-0.02235385282444885</v>
+        <v>-0.02173903399690825</v>
       </c>
       <c r="D101">
-        <v>0.0148202515140106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.014357338444924</v>
+      </c>
+      <c r="E101">
+        <v>0.01055169799593947</v>
+      </c>
+      <c r="F101">
+        <v>-0.09753524251917486</v>
+      </c>
+      <c r="G101">
+        <v>0.004594575894132806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1196652521748694</v>
+        <v>0.123890071466878</v>
       </c>
       <c r="C102">
-        <v>-0.07536182349949745</v>
+        <v>-0.0966074012241712</v>
       </c>
       <c r="D102">
-        <v>0.02619489821960463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04605660138946998</v>
+      </c>
+      <c r="E102">
+        <v>0.009092324698900048</v>
+      </c>
+      <c r="F102">
+        <v>-0.0282510809310567</v>
+      </c>
+      <c r="G102">
+        <v>-0.01162931443990703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
